--- a/GUI + Reviews/202512/Review 202512/Dataiku/CSTA_EMS_2025-12-11_2025-12-11-23-10-46.xlsx
+++ b/GUI + Reviews/202512/Review 202512/Dataiku/CSTA_EMS_2025-12-11_2025-12-11-23-10-46.xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/Review 202512/Dataiku/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_69D32AB00ACDC681E6E63A2C92D6EEF96C97CF01" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D6D77C3-F418-4565-9A70-B214D35728DD}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selection" sheetId="1" r:id="rId1"/>
     <sheet name="inclusion" sheetId="2" r:id="rId2"/>
     <sheet name="exclusion" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -177,8 +196,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,13 +260,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -285,7 +312,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -319,6 +346,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -353,9 +381,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -528,14 +557,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -575,7 +606,7 @@
         <v>1797199973</v>
       </c>
       <c r="E2">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -587,7 +618,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -613,7 +644,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -639,7 +670,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -665,7 +696,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -691,7 +722,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -717,7 +748,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -743,7 +774,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -769,7 +800,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -795,7 +826,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -821,7 +852,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -847,7 +878,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -873,7 +904,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -899,7 +930,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -925,7 +956,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -951,7 +982,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -968,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0.4560986649284</v>
+        <v>0.45609866492840001</v>
       </c>
       <c r="G17" t="s">
         <v>48</v>
@@ -979,18 +1010,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1003,18 +1037,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1025,7 +1062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1038,5 +1075,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/GUI + Reviews/202512/Review 202512/Dataiku/CSTA_EMS_2025-12-11_2025-12-11-23-10-46.xlsx
+++ b/GUI + Reviews/202512/Review 202512/Dataiku/CSTA_EMS_2025-12-11_2025-12-11-23-10-46.xlsx
@@ -1,36 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/Review 202512/Dataiku/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_69D32AB00ACDC681E6E63A2C92D6EEF96C97CF01" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D6D77C3-F418-4565-9A70-B214D35728DD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="selection" sheetId="1" r:id="rId1"/>
     <sheet name="inclusion" sheetId="2" r:id="rId2"/>
     <sheet name="exclusion" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -196,8 +177,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,21 +241,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -312,7 +285,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -346,7 +319,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -381,10 +353,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -557,16 +528,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -606,7 +575,7 @@
         <v>1797199973</v>
       </c>
       <c r="E2">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -618,7 +587,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -644,7 +613,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -670,7 +639,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -696,7 +665,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -722,7 +691,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -748,7 +717,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -774,7 +743,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -800,7 +769,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -826,7 +795,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -852,7 +821,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -878,7 +847,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -904,7 +873,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -930,7 +899,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -956,7 +925,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -982,7 +951,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -999,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0.45609866492840001</v>
+        <v>0.4560986649284</v>
       </c>
       <c r="G17" t="s">
         <v>48</v>
@@ -1010,21 +979,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1037,21 +1003,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1062,7 +1025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1075,8 +1038,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>